--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject22.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject22.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.85916797905456965</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.87427054050787989</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>0</v>
+        <v>0.9381925425548967</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -299,7 +299,7 @@
         <v>0</v>
       </c>
       <c r="BF1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.65475521206835563</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.83344298547462881</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.64095178166981004</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.7653831398886104</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.5116011790660866</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.86206740596153419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.73690735694648302</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.66112574780521938</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.70261231053106665</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.6861512971754451</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.59795320049435663</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.77266934191379866</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.68949023076783722</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>0</v>
+        <v>0.97794771458053198</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>0</v>
+        <v>0.63949028618701764</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.79687680462957899</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.54700162146117237</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.68314341266901357</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.93068252786538308</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.83358842423022006</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.73894081504041043</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="0">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0</v>
+        <v>0.78327543703880698</v>
       </c>
       <c r="AK6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.87281363235480047</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.97866711914687587</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.85734738327340021</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0</v>
+        <v>0.61825226446083148</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.9102277435506021</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.8923293031859495</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0</v>
+        <v>0.54311276087136751</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>0</v>
+        <v>0.52448986018962462</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>0</v>
+        <v>0.98965260113958575</v>
       </c>
       <c r="AW8" s="0">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.72641508362130125</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.80714763627957953</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.74839951326399357</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>0</v>
+        <v>0.95998055980135266</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0</v>
+        <v>0.9296422049591343</v>
       </c>
       <c r="AR9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.52402215700397314</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.78353609981478511</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="0">
-        <v>0</v>
+        <v>0.8522651116436275</v>
       </c>
       <c r="Q10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="BP10" s="0">
-        <v>0</v>
+        <v>0.90681791050563498</v>
       </c>
     </row>
     <row r="11">
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.93995088018433393</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.99810476251380575</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.54220715729578606</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>0</v>
+        <v>0.69296673965338584</v>
       </c>
       <c r="Z11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11" s="0">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.66268237009506925</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.76024636113790378</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.76860424433458108</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.57105593690883993</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.76494195542228838</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.79740619866094842</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.71780906688838564</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.86943060360412694</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.67136162979921932</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="0">
-        <v>0</v>
+        <v>0.53849805081926827</v>
       </c>
       <c r="AP14" s="0">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -3048,25 +3048,25 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.76884352137440715</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.8516331769158092</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>0</v>
+        <v>0.7428352161184737</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="BC15" s="0">
-        <v>0</v>
+        <v>0.68236004193086863</v>
       </c>
       <c r="BD15" s="0">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="BH15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="0">
         <v>0</v>
@@ -3242,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>0</v>
+        <v>0.67260459236074965</v>
       </c>
       <c r="J16" s="0">
-        <v>0</v>
+        <v>0.86351055417943656</v>
       </c>
       <c r="K16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.97916851611990086</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0</v>
+        <v>0.60414407008942383</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.56389363957804672</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.9515325490961547</v>
       </c>
       <c r="T17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>0</v>
+        <v>0.55477687882636439</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.53296534854434419</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="BO18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>0</v>
+        <v>0.65083706692034671</v>
       </c>
     </row>
     <row r="19">
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="0">
-        <v>0</v>
+        <v>0.75075214047126415</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.56399384673824815</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.58838870217781714</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="0">
-        <v>0</v>
+        <v>0.91532937313907303</v>
       </c>
       <c r="BF19" s="0">
         <v>0</v>
@@ -4090,22 +4090,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.84234830985441833</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.99152019916259426</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.52466210868882279</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>0</v>
+        <v>0.63678908536078627</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="0">
-        <v>0</v>
+        <v>0.87153891612153722</v>
       </c>
       <c r="AT20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.70655600697069354</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="0">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="0">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>0</v>
+        <v>0.57655768985461542</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.54961918715341929</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.53813116202516564</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.73335349540994343</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.98080479580904201</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.68999621051874149</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.63632175565415561</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.82422458598798265</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>0</v>
+        <v>0.59492300971594969</v>
       </c>
       <c r="BD23" s="0">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>0</v>
+        <v>0.9924352353862762</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.57940870204440964</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.6624923500901938</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>1</v>
+        <v>0.92082339003439229</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>0</v>
+        <v>0.73189978247698817</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.6049224464216052</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.81843747871184902</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.63405584880336263</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>0</v>
+        <v>0.66908924688374305</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.82458452082303357</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.98991838428398138</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.60086128536792671</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>0</v>
+        <v>0.65911659504736342</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.82076748907109054</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.69948364897563753</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.74581339778430289</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.82786227591601835</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>0</v>
+        <v>0.61971417125965789</v>
       </c>
       <c r="AL27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -5759,25 +5759,25 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.58073417568596875</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.79145926175640013</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.60909389816906834</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.53184915887207163</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.61912966175889461</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.60363463366928738</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.80667253313853959</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.72287573736592181</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>0</v>
+        <v>0.62118360941384432</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>0</v>
+        <v>0.65084582641105104</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>0</v>
+        <v>0.97133062821538352</v>
       </c>
       <c r="U30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.65656971836254607</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.75783432515030746</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.75146301339877175</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.51956019283742105</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="BB30" s="0">
-        <v>0</v>
+        <v>0.56435044083512942</v>
       </c>
       <c r="BC30" s="0">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.52091723716450999</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.69074167115403584</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.51737722392341956</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.65677236011881179</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6532,10 +6532,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6601,22 +6601,22 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.51682818915753836</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.68997222814640424</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.86349851482525386</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.8747056781993241</v>
       </c>
       <c r="AI32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>0</v>
+        <v>0.62740017306728513</v>
       </c>
       <c r="AA33" s="0">
         <v>0</v>
@@ -6810,16 +6810,16 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.87738395355368592</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.9584418073299934</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.70253737667238159</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="BB33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.89922189901549532</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.8893368428709405</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>0</v>
+        <v>0.76014778778111114</v>
       </c>
       <c r="BF34" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>0</v>
+        <v>0.62970981449421615</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>0</v>
+        <v>0.70417178192720542</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7225,22 +7225,22 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="0">
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.55601205949326815</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.75561732756108224</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="0">
-        <v>0</v>
+        <v>0.90355522074314298</v>
       </c>
       <c r="G36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.74803454941159653</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.59539694877901228</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.584441109737181</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7530,13 +7530,13 @@
         <v>0</v>
       </c>
       <c r="BM36" s="0">
-        <v>0</v>
+        <v>0.90378134110710662</v>
       </c>
       <c r="BN36" s="0">
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0</v>
+        <v>0.67257119886871641</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="0">
-        <v>0</v>
+        <v>0.95336393081411075</v>
       </c>
       <c r="AB37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.582390060308978</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.98919309808642519</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7819,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>1</v>
+        <v>0.53413219948626312</v>
       </c>
       <c r="Y38" s="0">
-        <v>0</v>
+        <v>0.68514107706743022</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.50448020276227634</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.80611371203097471</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="BN38" s="0">
-        <v>0</v>
+        <v>0.80630305147147863</v>
       </c>
       <c r="BO38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.76140621673331954</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.87759286169800288</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>0</v>
+        <v>0.78464045205451471</v>
       </c>
       <c r="AD40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.89875805935373654</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.71980159836810276</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0</v>
+        <v>0.69593549688945422</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0</v>
+        <v>0.68288630166848119</v>
       </c>
       <c r="B41" s="0">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>0</v>
+        <v>0.59660095349700615</v>
       </c>
       <c r="O41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.7505114925234273</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0</v>
+        <v>0.59338152685355161</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="BF41" s="0">
-        <v>0</v>
+        <v>0.88565276779064828</v>
       </c>
       <c r="BG41" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.71239692262048171</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.60518108499357148</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8733,13 +8733,13 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0</v>
+        <v>0.62902247387976551</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>0</v>
+        <v>0.67737140649596705</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
+        <v>0.77805522242626401</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.92486250370219591</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.88704433080782974</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8948,10 +8948,10 @@
         <v>0</v>
       </c>
       <c r="BE43" s="0">
-        <v>0</v>
+        <v>0.70675886931118725</v>
       </c>
       <c r="BF43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.68133415572246814</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.91250658171368104</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.63496116411119485</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="BK44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL44" s="0">
         <v>0</v>
       </c>
       <c r="BM44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN44" s="0">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>0</v>
+        <v>0.83024771320923207</v>
       </c>
       <c r="U45" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.69067254051757954</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.64012722333249272</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.7839370170331994</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="0">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>0</v>
+        <v>0.78643613331122797</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.75622540328321963</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.67716383908341271</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.57238866736576899</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.94068139644406901</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.73991020229752413</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.66868295539241007</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0</v>
+        <v>0.8548793076936434</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>0</v>
+        <v>0.63394670908790163</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
@@ -9945,25 +9945,25 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.94388720615482158</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.57023281728942243</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.95907761894310484</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.61546974580986424</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>0</v>
+        <v>0.59687157759360554</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.64395558316923474</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.95739768309839668</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
       </c>
       <c r="BA49" s="0">
-        <v>0</v>
+        <v>0.72700773960604992</v>
       </c>
       <c r="BB49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.93384825419226103</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.66899492952415263</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.7507465342240347</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.64201618140456951</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.67403599589334817</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.94887384207234104</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.77972965579252285</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
@@ -10775,25 +10775,25 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>0</v>
+        <v>0.66398787990041119</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.54951880928649532</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.81570449924042965</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.97595393051495571</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="0">
-        <v>0</v>
+        <v>0.77090805822286579</v>
       </c>
       <c r="BF52" s="0">
         <v>0</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10984,28 +10984,28 @@
         <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>0</v>
+        <v>0.65808510076211579</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.59165986226456657</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.90753695291324243</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
       </c>
       <c r="BD53" s="0">
-        <v>1</v>
+        <v>0.94333822184137928</v>
       </c>
       <c r="BE53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0</v>
+        <v>0.8525764960845108</v>
       </c>
     </row>
     <row r="54">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="0">
-        <v>0</v>
+        <v>0.78355326604572229</v>
       </c>
       <c r="AE54" s="0">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0</v>
+        <v>0.53196091125550149</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>0</v>
+        <v>0.5435266324045458</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>0</v>
+        <v>0.96721824908902854</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -11411,16 +11411,16 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>0</v>
+        <v>0.55042164242730174</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11614,22 +11614,22 @@
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>1</v>
+        <v>0.87169118083892472</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.83638075482619745</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK56" s="0">
         <v>0</v>
@@ -11718,13 +11718,13 @@
         <v>0</v>
       </c>
       <c r="S57" s="0">
-        <v>0</v>
+        <v>0.93398753472754481</v>
       </c>
       <c r="T57" s="0">
         <v>0</v>
       </c>
       <c r="U57" s="0">
-        <v>0</v>
+        <v>0.94596865388666784</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0</v>
+        <v>0.63793895810801227</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="0">
-        <v>0</v>
+        <v>0.80912025208515947</v>
       </c>
       <c r="AR57" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0</v>
+        <v>0.68565170911770235</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.61064433159132769</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -11990,13 +11990,13 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>0</v>
+        <v>0.94342389444674302</v>
       </c>
       <c r="AP58" s="0">
         <v>0</v>
       </c>
       <c r="AQ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.84153324377676975</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12247,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.77736264879743588</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.77119031795243709</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.95989334485473565</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>0</v>
+        <v>0.90032726710260746</v>
       </c>
       <c r="AV60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.63738120502615669</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.69250940722717991</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.55241128556278363</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0</v>
+        <v>0.58580682658871197</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0</v>
+        <v>0.97640854317051962</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0</v>
+        <v>0.6940927733624388</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.72927259510673625</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.76804704924593314</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.72566021877268483</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="BD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.58689379730766822</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.92607932398541959</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.7269986875486667</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.50132911991234586</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="AR63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.61997601381136214</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.71082639962258454</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.74271266215495957</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.8353139751012657</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.99129823858828037</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.83906384859440153</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.86874694055165969</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="0">
-        <v>0</v>
+        <v>0.61085248427661298</v>
       </c>
       <c r="AK65" s="0">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="AR65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.90707467494213134</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.75766921358784634</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.83090171063634854</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="0">
-        <v>0</v>
+        <v>0.57046662549821892</v>
       </c>
       <c r="AM66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.83372738148532755</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.90415075880844631</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.61044405142749758</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="0">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="0">
         <v>0</v>
@@ -13916,27 +13916,27 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.6824970905236698</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.56403620266206467</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.62667005603459314</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.8096555849686099</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.84055923428676882</v>
       </c>
       <c r="C68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>0</v>
+        <v>0.77956881632074349</v>
       </c>
       <c r="K68" s="0">
         <v>0</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>0</v>
+        <v>0.70397469401481683</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>0</v>
+        <v>0.90154818270898684</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.70384612906398192</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject22.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject22.xlsx
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.64095178166981004</v>
+        <v>0.85916797905456965</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0.7653831398886104</v>
       </c>
       <c r="D2" s="0">
-        <v>0.5116011790660866</v>
+        <v>0.59795320049435663</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -540,19 +540,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.73690735694648302</v>
+        <v>0.87427054050787989</v>
       </c>
       <c r="B3" s="0">
-        <v>0.66112574780521938</v>
+        <v>0.7653831398886104</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.70261231053106665</v>
+        <v>0.77266934191379866</v>
       </c>
       <c r="E3" s="0">
-        <v>0.6861512971754451</v>
+        <v>0.79687680462957899</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.68949023076783722</v>
+        <v>0.93068252786538308</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>0.97794771458053198</v>
+        <v>0.9924352353862762</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>0.63949028618701764</v>
+        <v>0.70417178192720542</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.54700162146117237</v>
+        <v>0.83358842423022006</v>
       </c>
       <c r="G5" s="0">
-        <v>0.68314341266901357</v>
+        <v>0.87281363235480047</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.73894081504041043</v>
+        <v>0.9102277435506021</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0.78327543703880698</v>
+        <v>0.90355522074314298</v>
       </c>
       <c r="AK6" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.61825226446083148</v>
+        <v>0.67257119886871641</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0.9102277435506021</v>
       </c>
       <c r="G8" s="0">
-        <v>0.8923293031859495</v>
+        <v>0.97866711914687587</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.54311276087136751</v>
+        <v>0.60414407008942383</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.52448986018962462</v>
+        <v>0.65084582641105104</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.72641508362130125</v>
+        <v>0.85734738327340021</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0.80714763627957953</v>
       </c>
       <c r="K9" s="0">
-        <v>0.74839951326399357</v>
+        <v>0.93995088018433393</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0.52402215700397314</v>
+        <v>0.80714763627957953</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.78353609981478511</v>
+        <v>0.99810476251380575</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="0">
-        <v>0.8522651116436275</v>
+        <v>0.86351055417943656</v>
       </c>
       <c r="Q10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.54220715729578606</v>
+        <v>0.76860424433458108</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>0.69296673965338584</v>
+        <v>0.73189978247698817</v>
       </c>
       <c r="Z11" s="0">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0.76860424433458108</v>
       </c>
       <c r="L13" s="0">
-        <v>0.57105593690883993</v>
+        <v>0.66268237009506925</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.76494195542228838</v>
+        <v>0.86943060360412694</v>
       </c>
       <c r="O13" s="0">
         <v>0.79740619866094842</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.71780906688838564</v>
+        <v>0.76024636113790378</v>
       </c>
       <c r="M14" s="0">
         <v>0.86943060360412694</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0.67136162979921932</v>
+        <v>0.97916851611990086</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="0">
-        <v>0.53849805081926827</v>
+        <v>0.59660095349700615</v>
       </c>
       <c r="AP14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.76884352137440715</v>
+        <v>0.79740619866094842</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>0.7428352161184737</v>
+        <v>0.75075214047126415</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>0.67260459236074965</v>
+        <v>0.95998055980135266</v>
       </c>
       <c r="J16" s="0">
         <v>0.86351055417943656</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.56389363957804672</v>
+        <v>0.8516331769158092</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>0.55477687882636439</v>
+        <v>0.58580682658871197</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.53296534854434419</v>
+        <v>0.84234830985441833</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>0.65083706692034671</v>
+        <v>0.70397469401481683</v>
       </c>
     </row>
     <row r="19">
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.56399384673824815</v>
+        <v>0.9515325490961547</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.58838870217781714</v>
+        <v>0.99152019916259426</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="0">
-        <v>0.91532937313907303</v>
+        <v>0.93398753472754481</v>
       </c>
       <c r="BF19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.52466210868882279</v>
+        <v>0.54961918715341929</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.63678908536078627</v>
+        <v>0.97133062821538352</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.70655600697069354</v>
+        <v>0.98080479580904201</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>0.57655768985461542</v>
+        <v>0.94596865388666784</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.53813116202516564</v>
+        <v>0.68999621051874149</v>
       </c>
       <c r="X22" s="0">
         <v>0.73335349540994343</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.63632175565415561</v>
+        <v>0.6624923500901938</v>
       </c>
       <c r="Y23" s="0">
         <v>0.82422458598798265</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>0.59492300971594969</v>
+        <v>0.96721824908902854</v>
       </c>
       <c r="BD23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.57940870204440964</v>
+        <v>0.73335349540994343</v>
       </c>
       <c r="W24" s="0">
         <v>0.6624923500901938</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.6049224464216052</v>
+        <v>0.82422458598798265</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.81843747871184902</v>
+        <v>0.82458452082303357</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.63405584880336263</v>
+        <v>0.82076748907109054</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.66908924688374305</v>
+        <v>0.68514107706743022</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5559,13 +5559,13 @@
         <v>0.82076748907109054</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.69948364897563753</v>
+        <v>0.98991838428398138</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.74581339778430289</v>
+        <v>0.79145926175640013</v>
       </c>
       <c r="AC27" s="0">
         <v>0.82786227591601835</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>0.61971417125965789</v>
+        <v>0.95336393081411075</v>
       </c>
       <c r="AL27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.58073417568596875</v>
+        <v>0.60086128536792671</v>
       </c>
       <c r="AA28" s="0">
         <v>0.79145926175640013</v>
@@ -5777,7 +5777,7 @@
         <v>0.60909389816906834</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.53184915887207163</v>
+        <v>0.65656971836254607</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.61912966175889461</v>
+        <v>0.82786227591601835</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.60363463366928738</v>
+        <v>0.60909389816906834</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>0.62118360941384432</v>
+        <v>0.78464045205451471</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0.65656971836254607</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.75783432515030746</v>
+        <v>0.80667253313853959</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="BB30" s="0">
-        <v>0.56435044083512942</v>
+        <v>0.78355326604572229</v>
       </c>
       <c r="BC30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.52091723716450999</v>
+        <v>0.72287573736592181</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.69074167115403584</v>
+        <v>0.75146301339877175</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.51737722392341956</v>
+        <v>0.68997222814640424</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.65677236011881179</v>
+        <v>0.87738395355368592</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.51682818915753836</v>
+        <v>0.51956019283742105</v>
       </c>
       <c r="AE32" s="0">
         <v>0.68997222814640424</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.86349851482525386</v>
+        <v>0.9584418073299934</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.8747056781993241</v>
+        <v>0.89922189901549532</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>0.62740017306728513</v>
+        <v>0.65911659504736342</v>
       </c>
       <c r="AA33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.70253737667238159</v>
+        <v>0.8893368428709405</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>0.62970981449421615</v>
+        <v>0.97640854317051962</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.55601205949326815</v>
+        <v>0.74803454941159653</v>
       </c>
       <c r="AK35" s="0">
         <v>0.75561732756108224</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.59539694877901228</v>
+        <v>0.98919309808642519</v>
       </c>
       <c r="AL36" s="0">
         <v>0.584441109737181</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.582390060308978</v>
+        <v>0.75561732756108224</v>
       </c>
       <c r="AJ37" s="0">
         <v>0.98919309808642519</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>0.53413219948626312</v>
+        <v>0.92082339003439229</v>
       </c>
       <c r="Y38" s="0">
         <v>0.68514107706743022</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.50448020276227634</v>
+        <v>0.584441109737181</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.80611371203097471</v>
+        <v>0.89875805935373654</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0.89875805935373654</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.71980159836810276</v>
+        <v>0.76140621673331954</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.68288630166848119</v>
+        <v>0.9381925425548967</v>
       </c>
       <c r="B41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.7505114925234273</v>
+        <v>0.87759286169800288</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0.59338152685355161</v>
+        <v>0.78643613331122797</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="BF41" s="0">
-        <v>0.88565276779064828</v>
+        <v>0.94342389444674302</v>
       </c>
       <c r="BG41" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.71239692262048171</v>
+        <v>0.92486250370219591</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.60518108499357148</v>
+        <v>0.68133415572246814</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="0">
-        <v>0.77805522242626401</v>
+        <v>0.9296422049591343</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="BE43" s="0">
-        <v>0.70675886931118725</v>
+        <v>0.80912025208515947</v>
       </c>
       <c r="BF43" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0.91250658171368104</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.63496116411119485</v>
+        <v>0.75622540328321963</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>0.83024771320923207</v>
+        <v>0.87153891612153722</v>
       </c>
       <c r="U45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.69067254051757954</v>
+        <v>0.88704433080782974</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.64012722333249272</v>
+        <v>0.91250658171368104</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.7839370170331994</v>
+        <v>0.94068139644406901</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.67716383908341271</v>
+        <v>0.73991020229752413</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.57238866736576899</v>
+        <v>0.94388720615482158</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0.8548793076936434</v>
+        <v>0.90032726710260746</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>0.63394670908790163</v>
+        <v>0.98965260113958575</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0.94388720615482158</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.57023281728942243</v>
+        <v>0.66868295539241007</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>0.95907761894310484</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.61546974580986424</v>
+        <v>0.93384825419226103</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>0.59687157759360554</v>
+        <v>0.66398787990041119</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.64395558316923474</v>
+        <v>0.95907761894310484</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0.93384825419226103</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.66899492952415263</v>
+        <v>0.95739768309839668</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.67403599589334817</v>
+        <v>0.7507465342240347</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.54951880928649532</v>
+        <v>0.64201618140456951</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.81570449924042965</v>
+        <v>0.94887384207234104</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10984,16 +10984,16 @@
         <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>0.65808510076211579</v>
+        <v>0.72700773960604992</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.59165986226456657</v>
+        <v>0.77972965579252285</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.90753695291324243</v>
+        <v>0.97595393051495571</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0.8525764960845108</v>
+        <v>0.90154818270898684</v>
       </c>
     </row>
     <row r="54">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0.53196091125550149</v>
+        <v>0.62902247387976551</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>0.5435266324045458</v>
+        <v>0.68236004193086863</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>0.55042164242730174</v>
+        <v>0.67737140649596705</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>0.87169118083892472</v>
+        <v>0.94333822184137928</v>
       </c>
       <c r="BB56" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0.63793895810801227</v>
+        <v>0.76014778778111114</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0.68565170911770235</v>
+        <v>0.77090805822286579</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.61064433159132769</v>
+        <v>0.83638075482619745</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.77736264879743588</v>
+        <v>0.84153324377676975</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.63738120502615669</v>
+        <v>0.77119031795243709</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.69250940722717991</v>
+        <v>0.76804704924593314</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.55241128556278363</v>
+        <v>0.58689379730766822</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0.6940927733624388</v>
+        <v>0.69593549688945422</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.72927259510673625</v>
+        <v>0.95989334485473565</v>
       </c>
       <c r="BH61" s="0">
         <v>0.76804704924593314</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.72566021877268483</v>
+        <v>0.92607932398541959</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.7269986875486667</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.50132911991234586</v>
+        <v>0.8353139751012657</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13083,16 +13083,16 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.61997601381136214</v>
+        <v>0.7269986875486667</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.71082639962258454</v>
+        <v>0.99129823858828037</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.74271266215495957</v>
+        <v>0.90707467494213134</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="0">
-        <v>0.61085248427661298</v>
+        <v>0.90378134110710662</v>
       </c>
       <c r="AK65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0.90707467494213134</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.75766921358784634</v>
+        <v>0.83906384859440153</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="0">
-        <v>0.57046662549821892</v>
+        <v>0.80630305147147863</v>
       </c>
       <c r="AM66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.83372738148532755</v>
+        <v>0.86874694055165969</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.61044405142749758</v>
+        <v>0.65475521206835563</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.6824970905236698</v>
+        <v>0.83090171063634854</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.56403620266206467</v>
+        <v>0.90415075880844631</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.62667005603459314</v>
+        <v>0.70384612906398192</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.8096555849686099</v>
+        <v>0.83344298547462881</v>
       </c>
       <c r="B68" s="0">
-        <v>0.84055923428676882</v>
+        <v>0.86206740596153419</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>0.77956881632074349</v>
+        <v>0.90681791050563498</v>
       </c>
       <c r="K68" s="0">
         <v>0</v>
